--- a/media/extract_description/raw_files/output2_maybank_statement2.xlsx
+++ b/media/extract_description/raw_files/output2_maybank_statement2.xlsx
@@ -144,7 +144,7 @@
     <t xml:space="preserve">   MUHAMMAD AZZUBAIR B*   130101000082833   TABUNG HAJI TRF</t>
   </si>
   <si>
-    <t>MUHAMMAD AZ7UBAIB BIN AZEMAN</t>
+    <t>MUHAMMAD AZZUBAIR BIN AZEMAN</t>
   </si>
   <si>
     <t xml:space="preserve">   UNIVERSITI SAINS MAL   016500 BANTUAN ONE O   FF PELAJAR</t>
